--- a/biology/Botanique/Asaret/Asaret.xlsx
+++ b/biology/Botanique/Asaret/Asaret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asarum
 L’Asaret, Asarum, est un genre de plantes herbacées de la famille des Aristolochiacées.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'asaret est mentionné à l'article 70 du Capitulaire De Villis édicté par Charlemagne, en tant que l'une des 94 plantes que les domaines royaux se doivent de cultiver.
 </t>
@@ -544,7 +558,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Asarum arifolium
@@ -623,8 +639,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calendrier républicain
-Dans le calendrier républicain, l’asaret était le nom attribué au 6e jour du mois de ventôse[1] (généralement les 24 février grégoriens).
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain, l’asaret était le nom attribué au 6e jour du mois de ventôse (généralement les 24 février grégoriens).
 </t>
         </is>
       </c>
